--- a/lib/report/benchmark_report/web14/exl/202206/jsliu__bank_test_&_city_(HF)(202206)_Management_Executive_Summary.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202206/jsliu__bank_test_&_city_(HF)(202206)_Management_Executive_Summary.xlsx
@@ -143,7 +143,7 @@
     <t>As of date:Jun,2022</t>
   </si>
   <si>
-    <t>Printed on:2022-08-08 15:21</t>
+    <t>Printed on:2022-08-09 10:33</t>
   </si>
   <si>
     <t>REVIEW</t>
@@ -5898,7 +5898,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>$144,749</a:t>
+            <a:t>$144,750</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="zh-CN" sz="1100" b="1">
             <a:solidFill>
@@ -5987,7 +5987,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>1.09%
-$1,577</a:t>
+$1,578</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6149,7 +6149,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>1.41%
-$2,046</a:t>
+$2,047</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6236,7 +6236,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>4.06%
-$5,874</a:t>
+$5,875</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -6410,7 +6410,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>4.41%
-$6,386</a:t>
+$6,388</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -7280,7 +7280,7 @@
               <a:latin typeface="Ubuntu"/>
             </a:rPr>
             <a:t>4.07%
-$5,890</a:t>
+$5,891</a:t>
           </a:r>
           <a:endParaRPr sz="1200" b="0">
             <a:solidFill>
@@ -9834,16 +9834,16 @@
         <v>-0.615567567567568</v>
       </c>
       <c r="O46" s="72">
-        <v>0.0621549655397216</v>
+        <v>0.0622393427632522</v>
       </c>
       <c r="P46" s="72">
-        <v>0.0539743332896967</v>
+        <v>0.0543213585168246</v>
       </c>
       <c r="Q46" s="72">
-        <v>0.0515565580006965</v>
+        <v>0.0517675463412659</v>
       </c>
       <c r="R46" s="72">
-        <v>0.050268761259671</v>
+        <v>0.0505896944327066</v>
       </c>
     </row>
     <row r="47" ht="16.5" customHeight="1">
@@ -10134,19 +10134,19 @@
         <v>14224</v>
       </c>
       <c r="F55" s="71">
-        <v>14363.3734224646</v>
+        <v>14363.3808644893</v>
       </c>
       <c r="G55" s="71">
-        <v>14811.6795268449</v>
+        <v>14812.063406343499</v>
       </c>
       <c r="H55" s="71">
-        <v>15248.8877132509</v>
+        <v>15250.7325978687</v>
       </c>
       <c r="I55" s="71">
-        <v>15653.546350303899</v>
+        <v>15657.8768083388</v>
       </c>
       <c r="J55" s="71">
-        <v>15019.3717532161</v>
+        <v>15021.0134192601</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="46" t="s">
@@ -10272,19 +10272,19 @@
         <v>143985</v>
       </c>
       <c r="F58" s="71">
-        <v>144124.373422465</v>
+        <v>144124.38086448898</v>
       </c>
       <c r="G58" s="71">
-        <v>144572.67952684502</v>
+        <v>144573.063406344</v>
       </c>
       <c r="H58" s="71">
-        <v>145009.887713251</v>
+        <v>145011.732597869</v>
       </c>
       <c r="I58" s="71">
-        <v>145414.546350304</v>
+        <v>145418.876808339</v>
       </c>
       <c r="J58" s="71">
-        <v>144780.371753216</v>
+        <v>144782.01341926</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="46" t="s">
@@ -10318,19 +10318,19 @@
         <v>139935</v>
       </c>
       <c r="F59" s="71">
-        <v>140074.373422465</v>
+        <v>140074.38086448898</v>
       </c>
       <c r="G59" s="71">
-        <v>140522.67952684502</v>
+        <v>140523.063406344</v>
       </c>
       <c r="H59" s="71">
-        <v>140959.887713251</v>
+        <v>140961.732597869</v>
       </c>
       <c r="I59" s="71">
-        <v>141364.546350304</v>
+        <v>141368.876808339</v>
       </c>
       <c r="J59" s="71">
-        <v>140730.371753216</v>
+        <v>140732.01341926</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="46" t="s">
@@ -10364,19 +10364,19 @@
         <v>15665</v>
       </c>
       <c r="F60" s="71">
-        <v>15804.3734224647</v>
+        <v>15804.3808644893</v>
       </c>
       <c r="G60" s="71">
-        <v>16252.679526845</v>
+        <v>16253.063406343701</v>
       </c>
       <c r="H60" s="71">
-        <v>16689.887713251</v>
+        <v>16691.7325978687</v>
       </c>
       <c r="I60" s="71">
-        <v>17094.546350304</v>
+        <v>17098.8768083387</v>
       </c>
       <c r="J60" s="71">
-        <v>16460.3717532162</v>
+        <v>16462.0134192601</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="46" t="s">
@@ -10410,19 +10410,19 @@
         <v>1598</v>
       </c>
       <c r="F61" s="71">
-        <v>1611.2020399575001</v>
+        <v>1611.3464136499</v>
       </c>
       <c r="G61" s="71">
-        <v>1664.10961443312</v>
+        <v>1665.5221865225399</v>
       </c>
       <c r="H61" s="71">
-        <v>1661.61279199259</v>
+        <v>1664.40602246926</v>
       </c>
       <c r="I61" s="71">
-        <v>1669.2447720681</v>
+        <v>1673.3374981020902</v>
       </c>
       <c r="J61" s="71">
-        <v>6606.16921845132</v>
+        <v>6614.6121207438</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="46" t="s">
@@ -10502,19 +10502,19 @@
         <v>1447</v>
       </c>
       <c r="F63" s="71">
-        <v>1523.028995056</v>
+        <v>1523.1733687484</v>
       </c>
       <c r="G63" s="71">
-        <v>1537.8669865286101</v>
+        <v>1539.27955861804</v>
       </c>
       <c r="H63" s="71">
-        <v>1497.96860782196</v>
+        <v>1500.76183829863</v>
       </c>
       <c r="I63" s="71">
-        <v>1473.87963632491</v>
+        <v>1477.9723623589</v>
       </c>
       <c r="J63" s="71">
-        <v>6032.74422573148</v>
+        <v>6041.18712802397</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="46" t="s">
@@ -10548,19 +10548,19 @@
         <v>328</v>
       </c>
       <c r="F64" s="71">
-        <v>436.32713411989903</v>
+        <v>436.438425520177</v>
       </c>
       <c r="G64" s="71">
-        <v>447.76509640080496</v>
+        <v>448.853986787877</v>
       </c>
       <c r="H64" s="71">
-        <v>417.009171546858</v>
+        <v>419.16235143599897</v>
       </c>
       <c r="I64" s="71">
-        <v>398.44003111586704</v>
+        <v>401.594935611475</v>
       </c>
       <c r="J64" s="71">
-        <v>1699.54143318343</v>
+        <v>1706.04969935553</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="46" t="s">
